--- a/src/main/resources/Workbook1.xlsx
+++ b/src/main/resources/Workbook1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joost1/source/sbt-js-test/excel/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joost1/source/excel/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="6400" windowWidth="28720" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="11560" yWindow="5680" windowWidth="28720" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Jan</t>
   </si>
@@ -45,16 +45,35 @@
   </si>
   <si>
     <t>Smit</t>
+  </si>
+  <si>
+    <t>Maria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,14 +96,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,60 +383,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>42310</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>34</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>32935</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>29316</v>
       </c>
-      <c r="D3">
-        <v>35</v>
+      <c r="E3">
+        <f>SUM(E1:E2)</f>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>